--- a/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
+++ b/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
+++ b/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
+++ b/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
+++ b/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.17</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.54</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.67</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.33</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
+++ b/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.17</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.54</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2117,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2255,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.33</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
+++ b/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.09</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -2239,14 +2410,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.54</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="6">
@@ -2255,14 +2426,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.67</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="7">
@@ -2271,13 +2442,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.33</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
+++ b/数据整理/stocks/其他/FANG-Diamondback能源股份有限公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.54</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.67</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.33</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-11.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.3660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -762,214 +987,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4130</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4130</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1324</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1324</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1034,32 +1051,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.4130</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1072,32 +1089,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0862</t>
+          <t>0.4130</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1120,22 +1137,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.1324</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1158,22 +1175,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.1324</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1186,6 +1203,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2151,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
